--- a/data/trans_dic/P36BPD13_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,36; 97,67</t>
+          <t>92,25; 97,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>97,13; 99,36</t>
+          <t>97,19; 99,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,3; 98,21</t>
+          <t>95,44; 98,15</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,35; 66,03</t>
+          <t>55,68; 65,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,23; 79,04</t>
+          <t>72,14; 79,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,42; 71,54</t>
+          <t>65,35; 71,66</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,22; 89,13</t>
+          <t>81,29; 89,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,03; 93,28</t>
+          <t>87,84; 93,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,91; 90,59</t>
+          <t>86,09; 90,85</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,22; 92,76</t>
+          <t>84,74; 93,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,4; 96,1</t>
+          <t>92,4; 96,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,54; 94,2</t>
+          <t>89,82; 94,23</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,61; 98,94</t>
+          <t>95,1; 98,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92,41; 97,28</t>
+          <t>92,59; 97,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,52; 97,73</t>
+          <t>94,66; 97,72</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,11; 95,43</t>
+          <t>88,84; 95,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,79; 97,75</t>
+          <t>93,87; 97,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,35; 95,97</t>
+          <t>92,32; 96,11</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74,81; 82,39</t>
+          <t>75,44; 82,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,2; 89,79</t>
+          <t>79,35; 89,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,55; 85,74</t>
+          <t>78,46; 85,55</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>89,17; 93,58</t>
+          <t>89,12; 93,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,72; 90,99</t>
+          <t>86,96; 91,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>88,71; 91,94</t>
+          <t>88,71; 91,7</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>82,98; 86,08</t>
+          <t>83,1; 86,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>87,2; 89,56</t>
+          <t>87,24; 89,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>85,61; 87,48</t>
+          <t>85,58; 87,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36BPD13_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>97,11%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,25; 97,66</t>
+          <t>92,25; 97,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>97,19; 99,3</t>
+          <t>97,25; 99,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,44; 98,15</t>
+          <t>95,46; 98,17</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>60,94%</t>
+          <t>61,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>75,89%</t>
+          <t>75,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>68,67%</t>
+          <t>68,7%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,68; 65,8</t>
+          <t>56,04; 66,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,14; 79,17</t>
+          <t>72,09; 79,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,35; 71,66</t>
+          <t>65,33; 71,86</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88,47%</t>
+          <t>88,43%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,29; 89,12</t>
+          <t>81,29; 89,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,84; 93,53</t>
+          <t>87,96; 93,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,09; 90,85</t>
+          <t>86,06; 90,8</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>93,1%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,74; 93,14</t>
+          <t>85,17; 93,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,4; 96,03</t>
+          <t>93,3; 97,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,82; 94,23</t>
+          <t>90,8; 95,39</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>96,45%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>95,1; 98,96</t>
+          <t>95,13; 98,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92,59; 97,21</t>
+          <t>92,46; 97,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,66; 97,72</t>
+          <t>94,62; 97,7</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>94,48%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>88,84; 95,17</t>
+          <t>88,86; 95,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,87; 97,67</t>
+          <t>93,96; 97,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,32; 96,11</t>
+          <t>92,32; 96,14</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>78,99%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>83,16%</t>
+          <t>85,13%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>82,6%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75,44; 82,84</t>
+          <t>75,44; 82,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,35; 89,79</t>
+          <t>79,38; 93,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,46; 85,55</t>
+          <t>78,84; 88,72</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>89,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>91,51%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>89,12; 93,71</t>
+          <t>90,33; 97,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,96; 91,16</t>
+          <t>87,07; 91,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>88,71; 91,7</t>
+          <t>89,51; 94,76</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>88,28%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>87,21%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>83,1; 86,06</t>
+          <t>83,57; 88,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>87,24; 89,65</t>
+          <t>87,66; 90,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>85,58; 87,51</t>
+          <t>86,12; 88,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36BPD13_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,25; 97,67</t>
+          <t>92,67; 97,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>97,25; 99,33</t>
+          <t>97,35; 99,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,46; 98,17</t>
+          <t>95,55; 98,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,04; 66,52</t>
+          <t>56,12; 67,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,09; 79,18</t>
+          <t>72,25; 78,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,33; 71,86</t>
+          <t>65,36; 71,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,29; 89,36</t>
+          <t>80,57; 88,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,96; 93,59</t>
+          <t>87,83; 93,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,06; 90,8</t>
+          <t>85,92; 90,62</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,17; 93,35</t>
+          <t>84,91; 93,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93,3; 97,39</t>
+          <t>93,17; 97,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,8; 95,39</t>
+          <t>90,68; 95,29</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>95,13; 98,97</t>
+          <t>94,81; 99,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92,46; 97,17</t>
+          <t>92,6; 97,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,62; 97,7</t>
+          <t>94,7; 97,67</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>88,86; 95,19</t>
+          <t>89,16; 95,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,96; 97,69</t>
+          <t>93,76; 97,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,32; 96,14</t>
+          <t>92,56; 96,03</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75,44; 82,96</t>
+          <t>75,29; 82,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,38; 93,02</t>
+          <t>79,03; 92,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,84; 88,72</t>
+          <t>78,92; 89,5</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,33; 97,5</t>
+          <t>90,16; 96,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>87,07; 91,14</t>
+          <t>86,82; 91,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>89,51; 94,76</t>
+          <t>89,49; 94,71</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,48</t>
+          <t>83,6; 88,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>87,66; 90,99</t>
+          <t>87,73; 90,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>86,12; 88,84</t>
+          <t>86,04; 89,2</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumen preferentemente carne de pollo, pavo o conejo en vez de ternera, cerdo, hamburguesas o salchichas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>296726</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>285484</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>582210</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>287196; 302793</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>281964; 287722</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>572891; 589034</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>318128</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>390505</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>708634</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>290204; 346953</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>371570; 405777</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>674159; 740410</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>263453</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>310675</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>574128</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>248136; 273965</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>299734; 318234</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>557810; 588348</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>278413</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>450301</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>728714</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>263452; 290164</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>440192; 459991</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>709758; 745827</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>173856</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>198036</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>371892</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>168821; 176300</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>192159; 201630</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>365170; 376621</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>249338</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>247441</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>496778</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>239613; 255932</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>241017; 251525</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>486702; 504950</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1237</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>491666</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>712357</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1204022</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>467368; 513225</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>661304; 778076</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1150360; 1304501</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1640</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>865026</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>638858</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1503884</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>835782; 898817</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>621930; 652995</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1470621; 1556355</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2885</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>7613</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2936605</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3233657</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>6170262</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2875657; 3044662</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3189337; 3307672</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>6087588; 6310817</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>